--- a/out/analysis/testjuhtumid.xlsx
+++ b/out/analysis/testjuhtumid.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Testjuhtumid" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Testjuhtumid" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/out/analysis/testjuhtumid.xlsx
+++ b/out/analysis/testjuhtumid.xlsx
@@ -528,22 +528,22 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Soovita kursusi: 6 EAP eesti keeles sügissemester.</t>
+          <t>Soovita 2 kursust järgmiste piirangutega: 4 EAP, inglise keeles, sügissemester, magistrile, (LT). Kui täpselt ei leia, paku lähimad alternatiivid ja ütle miks.</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>credits=6, semester=autumn, language=et, level=ANY</t>
+          <t>credits=4, semester=autumn, language=en, level=master, faculty=LT</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>LTFY.01.034, HVKU.03.058, P2EC.00.248, SVNC.00.158, LOKT.00.004</t>
+          <t>SVMJ.05.002, LTOM.03.021, ARFS.01.023, MVBS.07.004, LTBI.00.034</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-03-02 11:13:22</t>
+          <t>2026-03-02 13:17:47</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -563,12 +563,12 @@
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>FLLC.09.006, FLFI.05.025, FLLC.09.007, HVLC.09.055, HVLC.09.038</t>
+          <t>SVMJ.05.002, LTOM.03.021, LTBI.00.034, LTKT.04.003, LTOM.02.051</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>HIT</t>
         </is>
       </c>
     </row>
@@ -580,22 +580,22 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Soovita kursusi: 3 EAP eesti keeles kevadsemester magistrile.</t>
+          <t>Mul on vaja semestriplaani. Leia 4 kursust filtritega: 3 EAP, eesti keeles, kevadsemester, bakalaureusele, (HV). nii, et töökoormus oleks mõistlik. Lisa iga kursuse juurde ka võimalik risk (nt raske matemaatika, palju rühmatööd).</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>credits=3, semester=spring, language=et, level=master</t>
+          <t>credits=3, semester=spring, language=et, level=bachelor, faculty=HV</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>ARFR.02.034, KKSB.03.013, LOOM.02.063, LOOM.01.108, HVLC.05.073</t>
+          <t>FLSE.00.311, HVEE.05.040, HVEE.05.041, LOKT.02.041, MJRI.03.099</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-03-02 11:14:12</t>
+          <t>2026-03-02 13:19:11</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -615,12 +615,12 @@
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>MJRI.03.099, FLGR.00.050, HVEE.00.043, HVLC.05.027, FLFI.02.138</t>
+          <t>FLSE.00.311, HVEE.05.040, HVEE.05.041, LOKT.02.041, MJRI.03.099</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>HIT</t>
         </is>
       </c>
     </row>
@@ -632,17 +632,17 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Soovita kursusi: 3 EAP eesti keeles sügissemester bakalaureusele.</t>
+          <t>Palun koosta lühike shortlist: 5 sobivaimat kursust tingimustega: 3 EAP, eesti keeles, sügissemester, bakalaureusele, (LT). Väldi liiga teoreetilisi aineid; eelista praktilisi.</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>credits=3, semester=autumn, language=et, level=bachelor</t>
+          <t>credits=3, semester=autumn, language=et, level=bachelor, faculty=LT</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>P2NC.00.907, SOPH.00.276, LOFY.01.030, ARPS.01.005, HVLC.04.033</t>
+          <t>HVEE.00.019, HVEE.02.005, LTFY.01.001, LOTI.05.021, LTAT.01.004</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-03-02 11:14:42</t>
+          <t>2026-03-02 13:19:46</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>LTFY.01.028, LTKT.00.010, P2NC.00.907, HVEE.02.005, FLGR.03.205</t>
+          <t>HVEE.00.019, HVEE.02.005, LTFY.01.001, LOTI.05.021, LTAT.01.004</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -684,22 +684,22 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Soovita kursusi: 3 EAP eesti keeles kevadsemester.</t>
+          <t>Soovita 2 kursust tingimustega: 6 EAP, eesti keeles, sügissemester, bakalaureusele, (HV). Kui täpselt ei leia, paku lähimad alternatiivid ja ütle miks.</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>credits=3, semester=spring, language=et, level=ANY</t>
+          <t>credits=6, semester=autumn, language=et, level=bachelor, faculty=HV</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>FLSE.00.054, FLGR.03.281, LOKT.10.026, HTOS.02.245, SVHI.02.004</t>
+          <t>FLLC.09.007, HVLC.09.038, FLLC.09.006</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-03-02 11:15:26</t>
+          <t>2026-03-02 13:20:21</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -719,12 +719,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>HVEE.01.004, FLEE.02.042, MJRI.03.099, HVEE.05.041, HVEE.05.040</t>
+          <t>FLLC.09.007, HVLC.09.038, FLLC.09.006, HVLC.09.056, HVLC.01.027</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>HIT</t>
         </is>
       </c>
     </row>
@@ -736,22 +736,22 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Soovita kursusi: 3 EAP inglise keeles sügissemester magistrile.</t>
+          <t>Olen valimas aineid. Soovita 5 kursust (soovid: 3 EAP, eesti keeles, sügissemester, bakalaureusele, (LT). Iga soovituse juurde lisa: kood, 1–2 lauset miks see sobib, ja mida eeldatakse eelteadmistena.</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>credits=3, semester=autumn, language=en, level=master</t>
+          <t>credits=3, semester=autumn, language=et, level=bachelor, faculty=LT</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>ARTO.01.021, LTTI.00.029, LTMS.00.057, OIAO.05.071, OIAO.05.074</t>
+          <t>HVEE.00.019, LTFY.01.028, HVEE.02.005, LTFY.01.001, LTKT.00.010</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-03-02 11:16:54</t>
+          <t>2026-03-02 13:20:47</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>HVKU.04.008, LTAT.05.023, HVLC.01.063, HVLC.04.019, LTAT.02.018</t>
+          <t>HVEE.00.019, LTFY.01.028, HVEE.02.005, LTFY.01.001, LTKT.00.010</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>HIT</t>
         </is>
       </c>
     </row>
